--- a/Tableau de synthèse- KONE Assane.xlsx
+++ b/Tableau de synthèse- KONE Assane.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -85,9 +85,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
@@ -118,30 +112,15 @@
     <t>NOM et prénom : KONE Assane</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage au sein de l'entrprise HubOne en tant que technicien support bureautique </t>
-  </si>
-  <si>
-    <t>Année en alternance au sein de l'entreprise HubOne en tant que tehcnicien support bureautique</t>
-  </si>
-  <si>
-    <t>Utilisation de l'Active directory et brassage de prise rj45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Répartion de poste informatique </t>
   </si>
   <si>
     <t>Création de compte VPN pour les collaborateurs</t>
   </si>
   <si>
-    <t>Utilisation de microsoft O365/ Azure/ Exchange Admin Center</t>
-  </si>
-  <si>
     <t>Accueil des nouveaux arrivants et remise du matériel informatique préalablement configuré</t>
   </si>
   <si>
-    <t>Gestions des demandes et des tâches via l'outil de ticketing Servicenow</t>
-  </si>
-  <si>
     <t>Tâches de support bureautique</t>
   </si>
   <si>
@@ -154,18 +133,9 @@
     <t>Particpations à des réunions Teams</t>
   </si>
   <si>
-    <t>1ère année: Création d'un site web de réservation de billets d'avions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ème année: CTX: Mise en place d'une infrastructure pour un hôpital (Projet HSP)       </t>
-  </si>
-  <si>
     <t>Configuration de switch</t>
   </si>
   <si>
-    <t>Mise en place de différents serveurs (Exchange, Zabbix, Active directory, VEEAM...)</t>
-  </si>
-  <si>
     <t>Langages utilisé: HTML; CSS; PHP</t>
   </si>
   <si>
@@ -191,6 +161,81 @@
   </si>
   <si>
     <t>septembre 2023- mars 2023</t>
+  </si>
+  <si>
+    <t>Centre de formation :Lycée Privé Robert Schuman</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1ère année</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Création d'un site web de réservation de billets d'avions</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3ème année: CTX: Mise en place d'une infrastructure pour un hôpital (Projet HSP)       </t>
+  </si>
+  <si>
+    <t>janvier2023 - avril 2023</t>
+  </si>
+  <si>
+    <t>Alternance au sein de l'entreprise HubOne en tant que tehcnicien support bureautique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage au sein de l'entreprise HubOne en tant que technicien support bureautique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brassage de prise </t>
+  </si>
+  <si>
+    <t>Masterisation de poste via Micosoft Intune</t>
+  </si>
+  <si>
+    <t>Dépannage,entretien et installation de matériel informatique</t>
+  </si>
+  <si>
+    <t>Notions office 365 (Listes de diffusion, boîte aux lettres partagées…)</t>
+  </si>
+  <si>
+    <t>Administration utilisateur hybride (Active directory, Azure AD)</t>
+  </si>
+  <si>
+    <t>octobre 2022- mars 2024</t>
+  </si>
+  <si>
+    <t>Rédaction de procédures</t>
+  </si>
+  <si>
+    <t>Gestions des demandes,des tâches et des incidents via l'outil de ticketing Servicenow</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur web</t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur de messagerie (Exchange)</t>
+  </si>
+  <si>
+    <t>Répartition de tâches</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur de supervision (Zabbix)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -272,6 +317,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,15 +732,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,15 +792,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,43 +873,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,8 +1195,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1218,7 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H1" s="28"/>
     </row>
@@ -1180,97 +1235,97 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="A5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1310,16 +1365,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="A8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1357,21 +1412,23 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="52" t="s">
-        <v>44</v>
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1410,18 +1467,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1459,18 +1518,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1508,21 +1567,19 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="52" t="s">
-        <v>44</v>
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1561,20 +1618,26 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1612,20 +1675,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="17"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1663,17 +1728,21 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="52" t="s">
-        <v>44</v>
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1712,14 +1781,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1757,14 +1832,22 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1802,14 +1885,18 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1847,16 +1934,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="A19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1894,18 +1981,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1943,18 +2030,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1992,18 +2079,22 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="17"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2041,18 +2132,22 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="17"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2090,16 +2185,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2137,14 +2234,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2182,14 +2279,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2227,16 +2324,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="A27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2274,18 +2371,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2323,18 +2420,18 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2372,18 +2469,22 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="17"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2421,18 +2522,20 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="A31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="17"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2470,20 +2573,20 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="20"/>
+      <c r="A32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="17"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2521,20 +2624,22 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="22"/>
+      <c r="A33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="19"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2572,18 +2677,20 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2620,15 +2727,21 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2665,11 +2778,58 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:43" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:43" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+    </row>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2713,11 +2873,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2725,6 +2880,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
